--- a/HumanResoureAPI/Resources/ExportFile/HieuQuaCV/nkcv.xlsx
+++ b/HumanResoureAPI/Resources/ExportFile/HieuQuaCV/nkcv.xlsx
@@ -41,9 +41,6 @@
     <t>Tổng</t>
   </si>
   <si>
-    <t xml:space="preserve">Quy ra giờ </t>
-  </si>
-  <si>
     <t>đến…..giờ …..phút</t>
   </si>
   <si>
@@ -73,16 +70,18 @@
   <si>
     <t>Từ ngày</t>
   </si>
+  <si>
+    <t xml:space="preserve">Quy ra phút </t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <numFmts count="2">
+  <numFmts count="1">
     <numFmt numFmtId="164" formatCode="[$-14809]hh:mm;@"/>
-    <numFmt numFmtId="165" formatCode="[$-14809]d/m/yyyy;@"/>
   </numFmts>
-  <fonts count="12" x14ac:knownFonts="1">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -101,32 +100,6 @@
     <font>
       <b/>
       <sz val="12"/>
-      <color theme="1"/>
-      <name val="Times New Roman"/>
-      <family val="1"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Times New Roman"/>
-      <family val="1"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <name val="Times New Roman"/>
-      <family val="1"/>
-    </font>
-    <font>
-      <sz val="13"/>
-      <name val="Times New Roman"/>
-      <family val="1"/>
-    </font>
-    <font>
-      <sz val="13"/>
       <color theme="1"/>
       <name val="Times New Roman"/>
       <family val="1"/>
@@ -155,6 +128,17 @@
     <font>
       <b/>
       <sz val="11"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
       <name val="Times New Roman"/>
       <family val="1"/>
     </font>
@@ -244,7 +228,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="40">
+  <cellXfs count="38">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
@@ -257,104 +241,96 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="2" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="2" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="5" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="7" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="2" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="2" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="165" fontId="5" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="14" fontId="5" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -703,20 +679,22 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I15"/>
+  <dimension ref="A1:I9"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" zoomScalePageLayoutView="130" workbookViewId="0">
-      <selection activeCell="E6" sqref="E6"/>
+      <selection activeCell="L9" sqref="L9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="5" style="2" customWidth="1"/>
     <col min="2" max="2" width="26.7109375" customWidth="1"/>
-    <col min="3" max="4" width="13.28515625" customWidth="1"/>
-    <col min="5" max="6" width="15.85546875" customWidth="1"/>
+    <col min="3" max="3" width="13.28515625" customWidth="1"/>
+    <col min="4" max="4" width="13.28515625" style="36" customWidth="1"/>
+    <col min="5" max="5" width="15.85546875" customWidth="1"/>
+    <col min="6" max="6" width="15.85546875" style="36" customWidth="1"/>
     <col min="7" max="7" width="15.42578125" customWidth="1"/>
-    <col min="8" max="8" width="10.5703125" style="1" customWidth="1"/>
+    <col min="8" max="8" width="11.85546875" style="1" customWidth="1"/>
     <col min="9" max="9" width="19.140625" customWidth="1"/>
     <col min="215" max="215" width="4.140625" customWidth="1"/>
     <col min="216" max="216" width="8.7109375" customWidth="1"/>
@@ -1666,196 +1644,128 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" s="4" customFormat="1" ht="72.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="37"/>
-      <c r="B1" s="37"/>
-      <c r="C1" s="37"/>
-      <c r="F1" s="30"/>
+      <c r="A1" s="27"/>
+      <c r="B1" s="27"/>
+      <c r="C1" s="27"/>
+      <c r="D1" s="31"/>
+      <c r="F1" s="31"/>
     </row>
     <row r="2" spans="1:9" s="4" customFormat="1" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="31" t="s">
+      <c r="A2" s="28" t="s">
+        <v>11</v>
+      </c>
+      <c r="B2" s="28"/>
+      <c r="C2" s="28"/>
+      <c r="D2" s="28"/>
+      <c r="E2" s="28"/>
+      <c r="F2" s="28"/>
+      <c r="G2" s="28"/>
+      <c r="H2" s="28"/>
+      <c r="I2" s="28"/>
+    </row>
+    <row r="3" spans="1:9" s="4" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="28"/>
+      <c r="B3" s="28"/>
+      <c r="C3" s="28"/>
+      <c r="D3" s="28"/>
+      <c r="E3" s="28"/>
+      <c r="F3" s="28"/>
+      <c r="G3" s="28"/>
+      <c r="H3" s="28"/>
+      <c r="I3" s="28"/>
+    </row>
+    <row r="4" spans="1:9" s="4" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="29" t="s">
+        <v>10</v>
+      </c>
+      <c r="B4" s="30" t="s">
+        <v>9</v>
+      </c>
+      <c r="C4" s="30" t="s">
+        <v>8</v>
+      </c>
+      <c r="D4" s="23" t="s">
+        <v>7</v>
+      </c>
+      <c r="E4" s="24"/>
+      <c r="F4" s="24"/>
+      <c r="G4" s="24"/>
+      <c r="H4" s="24"/>
+      <c r="I4" s="26" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" s="12" customFormat="1" ht="35.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="29"/>
+      <c r="B5" s="30"/>
+      <c r="C5" s="30"/>
+      <c r="D5" s="32" t="s">
+        <v>13</v>
+      </c>
+      <c r="E5" s="15" t="s">
+        <v>5</v>
+      </c>
+      <c r="F5" s="37" t="s">
         <v>12</v>
       </c>
-      <c r="B2" s="31"/>
-      <c r="C2" s="31"/>
-      <c r="D2" s="31"/>
-      <c r="E2" s="31"/>
-      <c r="F2" s="31"/>
-      <c r="G2" s="31"/>
-      <c r="H2" s="31"/>
-      <c r="I2" s="31"/>
-    </row>
-    <row r="3" spans="1:9" s="4" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="31"/>
-      <c r="B3" s="31"/>
-      <c r="C3" s="31"/>
-      <c r="D3" s="31"/>
-      <c r="E3" s="31"/>
-      <c r="F3" s="31"/>
-      <c r="G3" s="31"/>
-      <c r="H3" s="31"/>
-      <c r="I3" s="31"/>
-    </row>
-    <row r="4" spans="1:9" s="4" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="38" t="s">
-        <v>11</v>
+      <c r="G5" s="14" t="s">
+        <v>4</v>
       </c>
-      <c r="B4" s="39" t="s">
-        <v>10</v>
-      </c>
-      <c r="C4" s="39" t="s">
-        <v>9</v>
-      </c>
-      <c r="D4" s="33" t="s">
-        <v>8</v>
-      </c>
-      <c r="E4" s="34"/>
-      <c r="F4" s="34"/>
-      <c r="G4" s="34"/>
-      <c r="H4" s="34"/>
-      <c r="I4" s="36" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9" s="25" customFormat="1" ht="35.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="38"/>
-      <c r="B5" s="39"/>
-      <c r="C5" s="39"/>
-      <c r="D5" s="28" t="s">
+      <c r="H5" s="13" t="s">
         <v>14</v>
       </c>
-      <c r="E5" s="28" t="s">
-        <v>6</v>
-      </c>
-      <c r="F5" s="29" t="s">
-        <v>13</v>
-      </c>
-      <c r="G5" s="27" t="s">
-        <v>5</v>
-      </c>
-      <c r="H5" s="26" t="s">
-        <v>4</v>
-      </c>
-      <c r="I5" s="36"/>
+      <c r="I5" s="26"/>
     </row>
-    <row r="6" spans="1:9" s="14" customFormat="1" ht="39.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="20"/>
-      <c r="B6" s="19"/>
-      <c r="C6" s="16"/>
-      <c r="D6" s="18"/>
-      <c r="E6" s="17"/>
-      <c r="F6" s="17"/>
-      <c r="G6" s="17"/>
-      <c r="H6" s="17"/>
-      <c r="I6" s="15"/>
+    <row r="6" spans="1:9" s="20" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="17"/>
+      <c r="B6" s="21"/>
+      <c r="C6" s="18"/>
+      <c r="D6" s="33"/>
+      <c r="E6" s="19"/>
+      <c r="F6" s="33"/>
+      <c r="G6" s="18"/>
+      <c r="H6" s="18"/>
+      <c r="I6" s="18"/>
     </row>
-    <row r="7" spans="1:9" s="14" customFormat="1" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="20"/>
-      <c r="B7" s="19"/>
-      <c r="C7" s="16"/>
-      <c r="D7" s="18"/>
-      <c r="E7" s="17"/>
-      <c r="F7" s="17"/>
-      <c r="G7" s="17"/>
-      <c r="H7" s="17"/>
-      <c r="I7" s="21"/>
-    </row>
-    <row r="8" spans="1:9" s="23" customFormat="1" ht="55.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="20"/>
-      <c r="B8" s="24"/>
-      <c r="C8" s="16"/>
-      <c r="D8" s="18"/>
-      <c r="E8" s="17"/>
-      <c r="F8" s="17"/>
-      <c r="G8" s="17"/>
-      <c r="H8" s="16"/>
-      <c r="I8" s="15"/>
-    </row>
-    <row r="9" spans="1:9" s="23" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="20"/>
-      <c r="B9" s="24"/>
-      <c r="C9" s="16"/>
-      <c r="D9" s="18"/>
-      <c r="E9" s="17"/>
-      <c r="F9" s="17"/>
-      <c r="G9" s="17"/>
-      <c r="H9" s="16"/>
-      <c r="I9" s="15"/>
-    </row>
-    <row r="10" spans="1:9" s="14" customFormat="1" ht="70.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="20"/>
-      <c r="B10" s="22"/>
-      <c r="C10" s="16"/>
-      <c r="D10" s="18"/>
-      <c r="E10" s="17"/>
-      <c r="F10" s="17"/>
-      <c r="G10" s="17"/>
-      <c r="H10" s="16"/>
-      <c r="I10" s="21"/>
-    </row>
-    <row r="11" spans="1:9" s="14" customFormat="1" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="20"/>
-      <c r="B11" s="19"/>
-      <c r="C11" s="16"/>
-      <c r="D11" s="18"/>
-      <c r="E11" s="17"/>
-      <c r="F11" s="17"/>
-      <c r="G11" s="17"/>
-      <c r="H11" s="16"/>
-      <c r="I11" s="21"/>
-    </row>
-    <row r="12" spans="1:9" s="14" customFormat="1" ht="36" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="20"/>
-      <c r="B12" s="19"/>
-      <c r="C12" s="16"/>
-      <c r="D12" s="18"/>
-      <c r="E12" s="17"/>
-      <c r="F12" s="17"/>
-      <c r="G12" s="17"/>
-      <c r="H12" s="16"/>
-      <c r="I12" s="15"/>
-    </row>
-    <row r="13" spans="1:9" s="3" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="13"/>
-      <c r="B13" s="12" t="s">
+    <row r="7" spans="1:9" s="3" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="11"/>
+      <c r="B7" s="10" t="s">
         <v>3</v>
       </c>
-      <c r="C13" s="10"/>
-      <c r="D13" s="10"/>
-      <c r="E13" s="11"/>
-      <c r="F13" s="11"/>
-      <c r="G13" s="10"/>
-      <c r="H13" s="9">
-        <f>SUM(H6:H12)</f>
+      <c r="C7" s="8"/>
+      <c r="D7" s="34"/>
+      <c r="E7" s="9"/>
+      <c r="F7" s="34"/>
+      <c r="G7" s="8"/>
+      <c r="H7" s="16"/>
+      <c r="I7" s="7"/>
+    </row>
+    <row r="8" spans="1:9" s="5" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="6"/>
+      <c r="B8" s="25" t="s">
+        <v>2</v>
+      </c>
+      <c r="C8" s="25"/>
+      <c r="D8" s="35"/>
+      <c r="E8" s="25" t="s">
+        <v>1</v>
+      </c>
+      <c r="F8" s="25"/>
+      <c r="G8" s="25"/>
+      <c r="H8" s="22" t="s">
         <v>0</v>
       </c>
-      <c r="I13" s="8"/>
+      <c r="I8" s="22"/>
     </row>
-    <row r="14" spans="1:9" s="5" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="7"/>
-      <c r="B14" s="35" t="s">
-        <v>2</v>
-      </c>
-      <c r="C14" s="35"/>
-      <c r="D14" s="6"/>
-      <c r="E14" s="35" t="s">
-        <v>1</v>
-      </c>
-      <c r="F14" s="35"/>
-      <c r="G14" s="35"/>
-      <c r="H14" s="32" t="s">
-        <v>0</v>
-      </c>
-      <c r="I14" s="32"/>
-    </row>
-    <row r="15" spans="1:9" s="3" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="2"/>
-      <c r="B15"/>
-      <c r="C15"/>
-      <c r="D15"/>
-      <c r="E15"/>
-      <c r="F15"/>
-      <c r="G15"/>
-      <c r="H15" s="4"/>
+    <row r="9" spans="1:9" s="3" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="2"/>
+      <c r="B9"/>
+      <c r="C9"/>
+      <c r="D9" s="36"/>
+      <c r="E9"/>
+      <c r="F9" s="36"/>
+      <c r="G9"/>
+      <c r="H9" s="4"/>
     </row>
   </sheetData>
   <mergeCells count="11">
@@ -1865,10 +1775,10 @@
     <mergeCell ref="B4:B5"/>
     <mergeCell ref="C4:C5"/>
     <mergeCell ref="A2:I2"/>
-    <mergeCell ref="H14:I14"/>
+    <mergeCell ref="H8:I8"/>
     <mergeCell ref="D4:H4"/>
-    <mergeCell ref="B14:C14"/>
-    <mergeCell ref="E14:G14"/>
+    <mergeCell ref="B8:C8"/>
+    <mergeCell ref="E8:G8"/>
     <mergeCell ref="I4:I5"/>
   </mergeCells>
   <pageMargins left="0.35" right="0.25" top="0.25" bottom="0.25" header="0" footer="0"/>
